--- a/output/fit_clients/fit_round_458.xlsx
+++ b/output/fit_clients/fit_round_458.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2320322979.315511</v>
+        <v>1731504198.794635</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08934696425569821</v>
+        <v>0.08205919024161379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0382365560229312</v>
+        <v>0.04194057244847341</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1160161528.374516</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2146561167.638738</v>
+        <v>2489876072.115675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1656596754557555</v>
+        <v>0.1391449240608726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04227186956414188</v>
+        <v>0.04123184769664508</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1073280646.603271</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4267386401.40799</v>
+        <v>5203629619.87575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1126371747116564</v>
+        <v>0.1485595489388963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02828162641857854</v>
+        <v>0.03460811776101642</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>165</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2133693233.840482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2811797645.174798</v>
+        <v>2754052523.293174</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08676187905429197</v>
+        <v>0.07835761590282914</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04077876694906146</v>
+        <v>0.0368318327343255</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>169</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1405898904.916219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1782036881.114047</v>
+        <v>1896439299.074827</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1042089975094389</v>
+        <v>0.09497257575227246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03905757742591526</v>
+        <v>0.03567270695276432</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>891018493.7594498</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2804892406.885257</v>
+        <v>2077447962.960819</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08797548828015526</v>
+        <v>0.08227307600555493</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04861798164373179</v>
+        <v>0.03847651213652269</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1402446187.106929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3447220886.617217</v>
+        <v>3156119162.399298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.170295793519252</v>
+        <v>0.1939803692052956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02419272551206295</v>
+        <v>0.02808453818444957</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>146</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1723610546.561511</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2310092920.921639</v>
+        <v>1482687213.265263</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1608986562975357</v>
+        <v>0.1736572178969941</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03476784170968387</v>
+        <v>0.02866438427052237</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1155046444.069763</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3967774043.911009</v>
+        <v>3660253344.086539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167220329438218</v>
+        <v>0.199340588857685</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04322894194528029</v>
+        <v>0.03879763414579139</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>193</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1983887041.370677</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3760530356.291785</v>
+        <v>2682732058.061457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.151897226336624</v>
+        <v>0.1308616213217496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03803839777709817</v>
+        <v>0.049388293709663</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>190</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1880265174.112199</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2701982696.194522</v>
+        <v>3246579343.96733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.149705480175809</v>
+        <v>0.1841900514591642</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03669902806817996</v>
+        <v>0.04268688729662121</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>156</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1350991338.85374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5271378813.662626</v>
+        <v>4742091324.790263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06908375164959897</v>
+        <v>0.07167854282874972</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02514869014837482</v>
+        <v>0.01970187486255173</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>154</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2635689397.205196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2404305797.896217</v>
+        <v>3336031765.475669</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1514797952059138</v>
+        <v>0.1828819695066469</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03601466942669628</v>
+        <v>0.03630958454260918</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1202152976.544992</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1696071307.90331</v>
+        <v>1539688473.116922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.101889512944175</v>
+        <v>0.06655979337154384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04150242780464208</v>
+        <v>0.04230343894562986</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>848035783.9222116</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2574068634.747552</v>
+        <v>2361735719.845452</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09914290064851305</v>
+        <v>0.07492310850738763</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04960321344794319</v>
+        <v>0.03812156884247628</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1287034341.596346</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3778390753.63376</v>
+        <v>4484698399.930229</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1542643275984569</v>
+        <v>0.1731096673061242</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05286614177298429</v>
+        <v>0.03901841602370134</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1889195422.380435</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3870861285.322636</v>
+        <v>2753620044.484203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1513189894974652</v>
+        <v>0.1148450226053964</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03308656645402873</v>
+        <v>0.03044791525795295</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>150</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1935430609.94144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1092064898.768732</v>
+        <v>989268427.660112</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1825971336483472</v>
+        <v>0.1762672605222274</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02012875236777339</v>
+        <v>0.02100484966406521</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>546032501.0576289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2552741177.681925</v>
+        <v>2528666434.616872</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1017890992884876</v>
+        <v>0.1428517642889734</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0318034442816735</v>
+        <v>0.02534869443563688</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1276370556.342722</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2585374279.479253</v>
+        <v>1918160222.584852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0996200829243236</v>
+        <v>0.09064461543161076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02903512463694996</v>
+        <v>0.04551933291313508</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1292687119.729254</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3490473430.613658</v>
+        <v>3528356589.678454</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1121018115270382</v>
+        <v>0.1348622348698428</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05364515898515858</v>
+        <v>0.05576035390860794</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1745236747.48433</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1414119310.917248</v>
+        <v>1261860678.911285</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1765362445298726</v>
+        <v>0.1775919722765899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04333478298666737</v>
+        <v>0.05204294526973804</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>707059655.905246</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3848155668.949226</v>
+        <v>3583581901.21722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1219078651707118</v>
+        <v>0.1009701470028754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03759820092757753</v>
+        <v>0.03693818470035926</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1924077812.695127</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>986745252.963102</v>
+        <v>1457368812.327216</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1207061041865886</v>
+        <v>0.08195293749503028</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01875322265053184</v>
+        <v>0.02924035848289355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>493372693.5534874</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>982565401.5682492</v>
+        <v>1210863706.93363</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09805566760886503</v>
+        <v>0.1228760308180668</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02925634685094851</v>
+        <v>0.02892972626764688</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>491282668.6698321</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3884506121.721907</v>
+        <v>3955562981.484972</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1578725883924484</v>
+        <v>0.1455490862290727</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02529607959936285</v>
+        <v>0.02551759048755308</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>103</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1942253076.749904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2544960975.931191</v>
+        <v>2845053490.763678</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1224244108235005</v>
+        <v>0.1388974116216885</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04399279485815714</v>
+        <v>0.03083857225202274</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1272480459.735954</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5601309673.014805</v>
+        <v>4762340234.213062</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1033624689690668</v>
+        <v>0.1427372297957482</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02873390640734865</v>
+        <v>0.04414481920032658</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>202</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2800654742.478004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1825619196.848842</v>
+        <v>2141604658.87486</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09259608147915827</v>
+        <v>0.1299745121260175</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02967368380570815</v>
+        <v>0.03050707566782077</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>912809616.0427985</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>914483517.4137825</v>
+        <v>1097357800.552474</v>
       </c>
       <c r="F31" t="n">
-        <v>0.083981973037709</v>
+        <v>0.07049691932756554</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03491431722048567</v>
+        <v>0.04897403358964078</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>457241777.3977832</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1556118412.066038</v>
+        <v>1505230868.630679</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07689149368591514</v>
+        <v>0.09624617984633518</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02600348757106198</v>
+        <v>0.03022236700960287</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>778059286.0376706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3025989637.839605</v>
+        <v>2764370229.36776</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888400222831228</v>
+        <v>0.1325290566513478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0371766004555443</v>
+        <v>0.0534619346363619</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1512994812.377296</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1388458311.031929</v>
+        <v>1058128158.905944</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1218095233307474</v>
+        <v>0.1187902364727124</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02764602095218972</v>
+        <v>0.02248127380604832</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>694229129.6670539</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1013864050.664983</v>
+        <v>1308639697.880375</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09912128032938071</v>
+        <v>0.1108850862915559</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03301060603532951</v>
+        <v>0.04277910616600561</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>506932040.8908045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2349907900.819231</v>
+        <v>3105445047.102091</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1799506435453684</v>
+        <v>0.1768483668415349</v>
       </c>
       <c r="G36" t="n">
-        <v>0.025474013720156</v>
+        <v>0.02026611118557236</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1174953984.447569</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2723164170.062627</v>
+        <v>1890903373.249696</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0895809352794735</v>
+        <v>0.1062043724135069</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03674760502737312</v>
+        <v>0.03666073993432848</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>122</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1361582211.79256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2081907954.515043</v>
+        <v>2142188855.055059</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07378090381453815</v>
+        <v>0.1090583442061074</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03358947736929627</v>
+        <v>0.02560066092927672</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1040953944.333177</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2130134504.594811</v>
+        <v>2209148105.93527</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1452909219104759</v>
+        <v>0.120680696236129</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03214152492249996</v>
+        <v>0.02820764762351763</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1065067227.085607</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1131777694.706425</v>
+        <v>1110179861.674178</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1277615298340072</v>
+        <v>0.1514879277187948</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0394677407908539</v>
+        <v>0.05720784644530496</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>565888905.7286766</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1962807770.461903</v>
+        <v>1811005861.539819</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1046645384504945</v>
+        <v>0.1513000446454419</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03248886477240214</v>
+        <v>0.03764228758838847</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>981403963.1647171</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3295529765.564341</v>
+        <v>3739863050.088248</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1207490144372468</v>
+        <v>0.079993803465571</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0307875106960584</v>
+        <v>0.03697554060981184</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1647764863.572807</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2425968198.053902</v>
+        <v>2925095963.181583</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1379879751676673</v>
+        <v>0.1587661276056215</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02473391377709284</v>
+        <v>0.02236018453308064</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>160</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1212984155.160887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2091457308.363411</v>
+        <v>1700812495.832875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07696071358257889</v>
+        <v>0.0807479445804084</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03677304588266207</v>
+        <v>0.0330071555453596</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1045728778.77618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1590343570.978928</v>
+        <v>1982545965.79899</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1536088277530973</v>
+        <v>0.1420597590129869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03642076705955598</v>
+        <v>0.04602173447840417</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>795171735.063414</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4560102760.550325</v>
+        <v>4338540862.361907</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1591507648088023</v>
+        <v>0.1119229164647391</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04937180959655116</v>
+        <v>0.04692762495448634</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>163</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2280051381.907042</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3899894734.216542</v>
+        <v>3362279880.672932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2032948868544396</v>
+        <v>0.1525805184976114</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04911572832135457</v>
+        <v>0.05034707947860653</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1949947360.584085</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4474307292.824237</v>
+        <v>3241297578.441101</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1024021136234331</v>
+        <v>0.066366185998504</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02606832437861604</v>
+        <v>0.02925128461274137</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>150</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2237153653.220348</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1696278849.827527</v>
+        <v>1642895825.204067</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1957336674620599</v>
+        <v>0.1279882672095659</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04284273446961697</v>
+        <v>0.03240200154634688</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>848139426.4521301</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3396840792.960092</v>
+        <v>3705931211.416822</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1362902887699647</v>
+        <v>0.1574125247582353</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03661453420862684</v>
+        <v>0.04180527229506</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>156</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1698420428.119344</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1184661688.500586</v>
+        <v>1347747044.58115</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1954211003640682</v>
+        <v>0.177544447323738</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04720507692041199</v>
+        <v>0.05277414621408332</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>592330898.3110466</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3999729613.826868</v>
+        <v>3721986698.087288</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09382138939557418</v>
+        <v>0.1125272569271503</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06041679387824359</v>
+        <v>0.06028261802906715</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>189</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1999864863.428534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3312363210.946663</v>
+        <v>2812896448.687535</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1438107942874756</v>
+        <v>0.1722657543244253</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0233701214931059</v>
+        <v>0.03257872150299437</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>132</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1656181616.388742</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3821130186.610149</v>
+        <v>4674291361.053465</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1616962420546356</v>
+        <v>0.117514530470929</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03595042281246268</v>
+        <v>0.04381023085727337</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>148</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1910565143.356812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4609825884.162087</v>
+        <v>4847440122.140536</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1910649957273991</v>
+        <v>0.1479090174822291</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02948160609131903</v>
+        <v>0.03235983650582168</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>126</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2304912943.908646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1215229136.680499</v>
+        <v>1282864263.207896</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1168603323826687</v>
+        <v>0.1198110815749452</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0382151433599623</v>
+        <v>0.0540820008589163</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>607614652.828546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3287294407.397389</v>
+        <v>3323717434.266686</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1514980240400556</v>
+        <v>0.161671529586423</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02025684208175478</v>
+        <v>0.01931530687157197</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>145</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1643647232.245305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1831379496.106686</v>
+        <v>1510735706.540339</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1345830426509221</v>
+        <v>0.1774179188496737</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02412860353711177</v>
+        <v>0.03424088543109208</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>915689748.9643521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4216563434.833882</v>
+        <v>3725073404.645136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09592807748477644</v>
+        <v>0.1151100714776795</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04986978092663574</v>
+        <v>0.04777873954639102</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2108281682.936571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3331736380.464581</v>
+        <v>2703076358.566551</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1559398179007187</v>
+        <v>0.2026008246031699</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02070436246262647</v>
+        <v>0.02989576409748512</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1665868295.398824</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3371923896.785265</v>
+        <v>2288015484.173897</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1388662250232881</v>
+        <v>0.1433027149630183</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02037956905624091</v>
+        <v>0.0327154389872468</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>157</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1685961893.804935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1295935635.723719</v>
+        <v>1291107594.09515</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1212979246708334</v>
+        <v>0.1904875380259564</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04622179915948687</v>
+        <v>0.0338782690242809</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647967770.2981386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3793441238.499203</v>
+        <v>5065925358.605067</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1013539822183981</v>
+        <v>0.07199665881625368</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03526592268524181</v>
+        <v>0.03654631257277226</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1896720690.89651</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4944323878.342569</v>
+        <v>3995210510.99789</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1686182134859104</v>
+        <v>0.1842093910995957</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0264791445695637</v>
+        <v>0.03030341015494878</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>143</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2472162041.478499</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5426593536.83112</v>
+        <v>5675191860.192329</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1636096624860994</v>
+        <v>0.1231962237002152</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02350551122062016</v>
+        <v>0.0308914674590478</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>164</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2713296701.895491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4303472731.414856</v>
+        <v>3548083785.790174</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1045612343038413</v>
+        <v>0.1084511576672038</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0342665223972949</v>
+        <v>0.0508087980221533</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2151736355.571681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2392053597.478238</v>
+        <v>2737855966.918233</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08724833681570378</v>
+        <v>0.09384627225442876</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03421640138681081</v>
+        <v>0.04748950064415486</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>147</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1196026868.466439</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5118328317.566632</v>
+        <v>4968321074.987198</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1600808654847491</v>
+        <v>0.1099390715683024</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04342277181094203</v>
+        <v>0.03292473473102002</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2559164222.374477</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1793806804.241834</v>
+        <v>2039027755.583086</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1367359163665142</v>
+        <v>0.1268780516574338</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03831245865171171</v>
+        <v>0.05232924629531851</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>896903380.4364766</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3465183367.751183</v>
+        <v>2314863679.604518</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08090969347505417</v>
+        <v>0.08777162928335092</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04496399213784567</v>
+        <v>0.03396785143012707</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>131</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1732591691.136545</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5174373713.037093</v>
+        <v>4437415891.955812</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1248724407690276</v>
+        <v>0.18588203552478</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02483618044427433</v>
+        <v>0.02617921974235758</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>167</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2587186975.264377</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1957707137.457545</v>
+        <v>1625325135.444802</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0947659548834914</v>
+        <v>0.09129282366902552</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04139136922031098</v>
+        <v>0.04280358060485292</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>978853521.9238232</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2397917094.235729</v>
+        <v>2205082059.062087</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1006080818063931</v>
+        <v>0.1086548140369076</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03234786103081472</v>
+        <v>0.03292321773685378</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1198958598.25711</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3353273261.994428</v>
+        <v>3779917395.535607</v>
       </c>
       <c r="F74" t="n">
-        <v>0.115894673772497</v>
+        <v>0.1438363513506927</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02429183189933369</v>
+        <v>0.03172199106969453</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>156</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1676636665.870495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1760298789.338797</v>
+        <v>2115574746.822937</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209777379452795</v>
+        <v>0.1506777661323717</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0359104999734477</v>
+        <v>0.02737008690906793</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>880149381.4067709</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3765002047.188715</v>
+        <v>4227162966.638309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1129615511762029</v>
+        <v>0.1158653199736872</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0245413182259842</v>
+        <v>0.02133767434431683</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1882500998.492033</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1917262560.862698</v>
+        <v>2215981674.146439</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1407720746273195</v>
+        <v>0.1539200751812019</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0242789865561191</v>
+        <v>0.0265030838965997</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>958631329.7530755</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3159015251.641006</v>
+        <v>3346287082.64384</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1119705226540982</v>
+        <v>0.1230409295013173</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04328367505452525</v>
+        <v>0.04482955866426896</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>159</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1579507651.739937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1281984571.805225</v>
+        <v>1264009312.370017</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1735458805522396</v>
+        <v>0.1545395644423913</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0255987875767444</v>
+        <v>0.03858273104578745</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>640992282.0059834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3820903119.328848</v>
+        <v>3992523467.410707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09890413591849147</v>
+        <v>0.08214457891652752</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03783513389383816</v>
+        <v>0.02736073254070175</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>102</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1910451550.242911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3522029876.770004</v>
+        <v>4220541520.882686</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08995271508353085</v>
+        <v>0.1363152810749803</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03095439934092303</v>
+        <v>0.03115385542660519</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>108</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1761014883.868363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5372847970.979086</v>
+        <v>4606519379.660625</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1412033304196559</v>
+        <v>0.1683450570711128</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02492703875017314</v>
+        <v>0.0264324024450115</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>161</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2686423948.635322</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626396086.992897</v>
+        <v>2456708764.613138</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09963186175486685</v>
+        <v>0.1575261442924646</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02827916041988215</v>
+        <v>0.0439349184826659</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>813197982.3290168</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2206057431.459751</v>
+        <v>2460445747.88395</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09824336801900196</v>
+        <v>0.1162047134518243</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04116753806584138</v>
+        <v>0.03811119227995233</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1103028690.586664</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2926097384.581667</v>
+        <v>2404916554.038342</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1448041515550435</v>
+        <v>0.1357964478445588</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04503191196437966</v>
+        <v>0.05300161123100405</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>171</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1463048744.283299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1840733744.784328</v>
+        <v>1926715310.097748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1499632420187758</v>
+        <v>0.1676256601820713</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02538846686120155</v>
+        <v>0.01787796346446621</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>920366877.8968287</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1264813006.846872</v>
+        <v>1484888567.141738</v>
       </c>
       <c r="F87" t="n">
-        <v>0.13708976294589</v>
+        <v>0.1868333622992976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02775161816971891</v>
+        <v>0.03333061270598644</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>632406575.642657</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3523035866.412464</v>
+        <v>3639911885.944638</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1096849368406785</v>
+        <v>0.1374096839214957</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02847809871322819</v>
+        <v>0.02993899054358806</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>182</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1761518015.377078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3075058589.290757</v>
+        <v>2687921250.477055</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1120667900136036</v>
+        <v>0.09673610354861883</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02944885207227868</v>
+        <v>0.03805954596622544</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>154</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1537529327.262313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2020874536.391115</v>
+        <v>1508021737.915312</v>
       </c>
       <c r="F90" t="n">
-        <v>0.100218273590839</v>
+        <v>0.1164845736787292</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05266022557539423</v>
+        <v>0.04454780335122142</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1010437342.279671</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055121856.094268</v>
+        <v>1333173968.449302</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135801331353844</v>
+        <v>0.1369404769236162</v>
       </c>
       <c r="G91" t="n">
-        <v>0.059824948777677</v>
+        <v>0.05617887009966144</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1027560892.96883</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2629110201.704786</v>
+        <v>1921548399.762694</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070780950670344</v>
+        <v>0.08467121333857326</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03555660057436612</v>
+        <v>0.04644561510322995</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1314555094.586266</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3738121132.807183</v>
+        <v>4126014558.058704</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09314310976645977</v>
+        <v>0.09735558866491556</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04344540291292342</v>
+        <v>0.04375051314526792</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1869060583.983707</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2251355191.566322</v>
+        <v>2036176899.687849</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1322311804815132</v>
+        <v>0.1185857864334921</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02819953171597402</v>
+        <v>0.03185980739706608</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1125677626.855285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2185740297.956039</v>
+        <v>2888796682.538622</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09612417609641216</v>
+        <v>0.08928776563356736</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03490466305559357</v>
+        <v>0.03489491075565265</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1092870207.927206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2323750329.016129</v>
+        <v>2046213297.352028</v>
       </c>
       <c r="F96" t="n">
-        <v>0.116981880464266</v>
+        <v>0.1305333651256607</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03049832787088774</v>
+        <v>0.03151616708523675</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1161875116.941344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4947513636.907682</v>
+        <v>4984157098.657054</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1500470845246847</v>
+        <v>0.1209800586342081</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02491126617357096</v>
+        <v>0.01973653061707014</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2473756951.049751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3071651171.62847</v>
+        <v>3240331718.890696</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08096355909924687</v>
+        <v>0.08985188144273208</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02269806912832608</v>
+        <v>0.02183725320769822</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1535825575.393303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2400371440.488535</v>
+        <v>2897516663.923648</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1040399458816667</v>
+        <v>0.1055651498911251</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02526651275769115</v>
+        <v>0.02987541140790117</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1200185662.822268</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3526983734.252486</v>
+        <v>4040720943.358035</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1285463486943515</v>
+        <v>0.1770682114689087</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02471468349890768</v>
+        <v>0.02482372591397504</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1763491900.065804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2952194997.580405</v>
+        <v>2642301845.332878</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1672025558763927</v>
+        <v>0.1585052776271692</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03561986975029307</v>
+        <v>0.04839767241873251</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>188</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1476097581.592068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_458.xlsx
+++ b/output/fit_clients/fit_round_458.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1731504198.794635</v>
+        <v>1661469064.382697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08205919024161379</v>
+        <v>0.09074140114646145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04194057244847341</v>
+        <v>0.033254819362905</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2489876072.115675</v>
+        <v>1667260515.955167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1391449240608726</v>
+        <v>0.1650818431311252</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04123184769664508</v>
+        <v>0.04376590788930536</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5203629619.87575</v>
+        <v>4419348251.395484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1485595489388963</v>
+        <v>0.1440978930952407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03460811776101642</v>
+        <v>0.02711144070410891</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2754052523.293174</v>
+        <v>4127680721.215262</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07835761590282914</v>
+        <v>0.08067804331334738</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0368318327343255</v>
+        <v>0.03845151134310086</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1896439299.074827</v>
+        <v>1856285458.993424</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09497257575227246</v>
+        <v>0.1047660059881358</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03567270695276432</v>
+        <v>0.05484123758973856</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2077447962.960819</v>
+        <v>2827616301.964335</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08227307600555493</v>
+        <v>0.09086306132845598</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03847651213652269</v>
+        <v>0.03922669325865914</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3156119162.399298</v>
+        <v>2966708507.293522</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1939803692052956</v>
+        <v>0.1432206087776586</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02808453818444957</v>
+        <v>0.02515514957641563</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1482687213.265263</v>
+        <v>1443032911.790963</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1736572178969941</v>
+        <v>0.1477663672541048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02866438427052237</v>
+        <v>0.02960796851997299</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3660253344.086539</v>
+        <v>5631367953.681644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.199340588857685</v>
+        <v>0.2042014953832805</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03879763414579139</v>
+        <v>0.04232559689833243</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2682732058.061457</v>
+        <v>3343094745.909828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1308616213217496</v>
+        <v>0.1338337186474671</v>
       </c>
       <c r="G11" t="n">
-        <v>0.049388293709663</v>
+        <v>0.0418172141968065</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3246579343.96733</v>
+        <v>2929060230.621738</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1841900514591642</v>
+        <v>0.1433774604271862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04268688729662121</v>
+        <v>0.05217274055684692</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4742091324.790263</v>
+        <v>5121992526.300544</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07167854282874972</v>
+        <v>0.06585566491657142</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01970187486255173</v>
+        <v>0.02019117583692695</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3336031765.475669</v>
+        <v>3110591531.968346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1828819695066469</v>
+        <v>0.1475130057211224</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03630958454260918</v>
+        <v>0.03223031050133815</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1539688473.116922</v>
+        <v>1440245200.444533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06655979337154384</v>
+        <v>0.07123658673291544</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04230343894562986</v>
+        <v>0.03334316762686062</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2361735719.845452</v>
+        <v>2367266567.916495</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07492310850738763</v>
+        <v>0.1027748070552902</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03812156884247628</v>
+        <v>0.04161528575794924</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4484698399.930229</v>
+        <v>4302888195.168964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731096673061242</v>
+        <v>0.1355872475764549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03901841602370134</v>
+        <v>0.04934905054010429</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2753620044.484203</v>
+        <v>2657247908.436395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1148450226053964</v>
+        <v>0.1775726859677483</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03044791525795295</v>
+        <v>0.0267875110536022</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989268427.660112</v>
+        <v>1147049262.324511</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762672605222274</v>
+        <v>0.1411397993551204</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02100484966406521</v>
+        <v>0.02322580417509309</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2528666434.616872</v>
+        <v>2404554701.223509</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1428517642889734</v>
+        <v>0.1171307722486262</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02534869443563688</v>
+        <v>0.03186016082889975</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1918160222.584852</v>
+        <v>2717097460.639669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09064461543161076</v>
+        <v>0.06632169359876228</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04551933291313508</v>
+        <v>0.02984426259573887</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3528356589.678454</v>
+        <v>3633155359.774374</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1348622348698428</v>
+        <v>0.1214183250191849</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05576035390860794</v>
+        <v>0.05639524067036893</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1261860678.911285</v>
+        <v>1131316859.696662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1775919722765899</v>
+        <v>0.1353296291450874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05204294526973804</v>
+        <v>0.04313334079431487</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3583581901.21722</v>
+        <v>2940635032.715715</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1009701470028754</v>
+        <v>0.1310479854460037</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03693818470035926</v>
+        <v>0.03656126545902463</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1457368812.327216</v>
+        <v>1411490295.085756</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08195293749503028</v>
+        <v>0.1084417166826672</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02924035848289355</v>
+        <v>0.01922574004890746</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1210863706.93363</v>
+        <v>1440591566.219409</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228760308180668</v>
+        <v>0.09217075232654313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02892972626764688</v>
+        <v>0.03304724491381895</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3955562981.484972</v>
+        <v>2856046049.76476</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1455490862290727</v>
+        <v>0.140830153432551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02551759048755308</v>
+        <v>0.01725109462768443</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2845053490.763678</v>
+        <v>3680838532.580261</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388974116216885</v>
+        <v>0.1321159730282587</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03083857225202274</v>
+        <v>0.0502452929690185</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4762340234.213062</v>
+        <v>5020575377.54959</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1427372297957482</v>
+        <v>0.13987730220577</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04414481920032658</v>
+        <v>0.03360293991421443</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2141604658.87486</v>
+        <v>1751640302.111158</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1299745121260175</v>
+        <v>0.08955575309784233</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03050707566782077</v>
+        <v>0.02733512088970739</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1097357800.552474</v>
+        <v>1332943960.284184</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07049691932756554</v>
+        <v>0.1079901522096376</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04897403358964078</v>
+        <v>0.04234401582273186</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1505230868.630679</v>
+        <v>1704711652.659456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09624617984633518</v>
+        <v>0.07671203020153748</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03022236700960287</v>
+        <v>0.02869551207313743</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2764370229.36776</v>
+        <v>3001385650.863882</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1325290566513478</v>
+        <v>0.1968193425831478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0534619346363619</v>
+        <v>0.05427708843482643</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1058128158.905944</v>
+        <v>1451957899.558549</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1187902364727124</v>
+        <v>0.08954705651563212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02248127380604832</v>
+        <v>0.02103098842331434</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1308639697.880375</v>
+        <v>1186700414.859008</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108850862915559</v>
+        <v>0.09118926741923765</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04277910616600561</v>
+        <v>0.03657024002371485</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3105445047.102091</v>
+        <v>3093052851.034371</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1768483668415349</v>
+        <v>0.1398096930421086</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02026611118557236</v>
+        <v>0.02849807470925722</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1890903373.249696</v>
+        <v>1907192372.558488</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1062043724135069</v>
+        <v>0.08362405819056924</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03666073993432848</v>
+        <v>0.03832548498669724</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2142188855.055059</v>
+        <v>1947495706.488081</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1090583442061074</v>
+        <v>0.1003416166629303</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02560066092927672</v>
+        <v>0.0292899773937864</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2209148105.93527</v>
+        <v>2122629659.945915</v>
       </c>
       <c r="F39" t="n">
-        <v>0.120680696236129</v>
+        <v>0.1906363272520278</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02820764762351763</v>
+        <v>0.02956898389682466</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1110179861.674178</v>
+        <v>1559835212.200804</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1514879277187948</v>
+        <v>0.1111220570052571</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05720784644530496</v>
+        <v>0.0524540083369002</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1811005861.539819</v>
+        <v>2315038725.915269</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1513000446454419</v>
+        <v>0.131109000710211</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03764228758838847</v>
+        <v>0.03147457647801005</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3739863050.088248</v>
+        <v>4212282463.104858</v>
       </c>
       <c r="F42" t="n">
-        <v>0.079993803465571</v>
+        <v>0.09654518000812137</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03697554060981184</v>
+        <v>0.02917538966381328</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2925095963.181583</v>
+        <v>2613833149.936223</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1587661276056215</v>
+        <v>0.1271341495836882</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02236018453308064</v>
+        <v>0.01770757676912063</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1700812495.832875</v>
+        <v>1747553953.995154</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0807479445804084</v>
+        <v>0.07921263493422036</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0330071555453596</v>
+        <v>0.02396166851987946</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1982545965.79899</v>
+        <v>2526686661.97333</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1420597590129869</v>
+        <v>0.1442418421906566</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04602173447840417</v>
+        <v>0.04160244355770321</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4338540862.361907</v>
+        <v>4700320816.54926</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1119229164647391</v>
+        <v>0.1117734681945418</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04692762495448634</v>
+        <v>0.04422498542041695</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3362279880.672932</v>
+        <v>3461083132.64621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1525805184976114</v>
+        <v>0.1591747112752928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05034707947860653</v>
+        <v>0.05596531354441377</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3241297578.441101</v>
+        <v>3006102324.806304</v>
       </c>
       <c r="F48" t="n">
-        <v>0.066366185998504</v>
+        <v>0.1058182897091663</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02925128461274137</v>
+        <v>0.02909634596994532</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1642895825.204067</v>
+        <v>1414956903.648647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1279882672095659</v>
+        <v>0.1811041625690669</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03240200154634688</v>
+        <v>0.02736981714370633</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3705931211.416822</v>
+        <v>3956787078.428879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1574125247582353</v>
+        <v>0.1201774069042708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04180527229506</v>
+        <v>0.0363079432046254</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1347747044.58115</v>
+        <v>1483899906.1372</v>
       </c>
       <c r="F51" t="n">
-        <v>0.177544447323738</v>
+        <v>0.1657244433718976</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05277414621408332</v>
+        <v>0.04546852078587848</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3721986698.087288</v>
+        <v>4377996962.655243</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1125272569271503</v>
+        <v>0.1088144651949906</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06028261802906715</v>
+        <v>0.05735233819827447</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2812896448.687535</v>
+        <v>3511829698.634053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1722657543244253</v>
+        <v>0.1530858228854372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03257872150299437</v>
+        <v>0.02881780678525799</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4674291361.053465</v>
+        <v>4557312964.460772</v>
       </c>
       <c r="F54" t="n">
-        <v>0.117514530470929</v>
+        <v>0.1331882249117147</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04381023085727337</v>
+        <v>0.05028668160943193</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4847440122.140536</v>
+        <v>4654975916.29115</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1479090174822291</v>
+        <v>0.2005232721755138</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03235983650582168</v>
+        <v>0.02546593191297543</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1282864263.207896</v>
+        <v>1600732488.769294</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1198110815749452</v>
+        <v>0.123106655978483</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0540820008589163</v>
+        <v>0.05415865599575867</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3323717434.266686</v>
+        <v>4094887608.098599</v>
       </c>
       <c r="F57" t="n">
-        <v>0.161671529586423</v>
+        <v>0.1216361909305494</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01931530687157197</v>
+        <v>0.02624057656860113</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1510735706.540339</v>
+        <v>1637705954.482795</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1774179188496737</v>
+        <v>0.1707755534101527</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03424088543109208</v>
+        <v>0.03163871435733414</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3725073404.645136</v>
+        <v>3757161720.736874</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1151100714776795</v>
+        <v>0.1261950678026848</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04777873954639102</v>
+        <v>0.03236040902106093</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2703076358.566551</v>
+        <v>3646284568.242354</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2026008246031699</v>
+        <v>0.1784437765367585</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02989576409748512</v>
+        <v>0.02789081551823892</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2288015484.173897</v>
+        <v>3058206423.460257</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1433027149630183</v>
+        <v>0.1100134974602243</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0327154389872468</v>
+        <v>0.03211033932198847</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1291107594.09515</v>
+        <v>1503578830.04875</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904875380259564</v>
+        <v>0.1176686740094751</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0338782690242809</v>
+        <v>0.03382611833286806</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5065925358.605067</v>
+        <v>3478343036.247556</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07199665881625368</v>
+        <v>0.09261268404381531</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03654631257277226</v>
+        <v>0.03123343115572437</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3995210510.99789</v>
+        <v>4334956540.066814</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1842093910995957</v>
+        <v>0.1360092305145798</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03030341015494878</v>
+        <v>0.02604229945964476</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5675191860.192329</v>
+        <v>3679953684.868069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1231962237002152</v>
+        <v>0.1052410510160488</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0308914674590478</v>
+        <v>0.02335821650603579</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3548083785.790174</v>
+        <v>4024092536.419725</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1084511576672038</v>
+        <v>0.1271745321743829</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0508087980221533</v>
+        <v>0.03254475262522782</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2737855966.918233</v>
+        <v>3433125110.69487</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09384627225442876</v>
+        <v>0.08243631715353811</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04748950064415486</v>
+        <v>0.03366451696331285</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4968321074.987198</v>
+        <v>5403328856.072906</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1099390715683024</v>
+        <v>0.1308552074231408</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03292473473102002</v>
+        <v>0.04351497081111768</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2039027755.583086</v>
+        <v>2046593462.351993</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1268780516574338</v>
+        <v>0.1571436850749777</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05232924629531851</v>
+        <v>0.04212450761834965</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2314863679.604518</v>
+        <v>3092997510.897687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08777162928335092</v>
+        <v>0.06939199422126292</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03396785143012707</v>
+        <v>0.03668432116745595</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4437415891.955812</v>
+        <v>4669142442.023635</v>
       </c>
       <c r="F71" t="n">
-        <v>0.18588203552478</v>
+        <v>0.1404763431536071</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02617921974235758</v>
+        <v>0.02882942949195091</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1625325135.444802</v>
+        <v>1531589230.865612</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09129282366902552</v>
+        <v>0.06618750460886159</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04280358060485292</v>
+        <v>0.03346626236877102</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2205082059.062087</v>
+        <v>2717456507.425779</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1086548140369076</v>
+        <v>0.07156181035221408</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03292321773685378</v>
+        <v>0.04381553698313283</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3779917395.535607</v>
+        <v>3651334319.922306</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1438363513506927</v>
+        <v>0.1708892641859737</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03172199106969453</v>
+        <v>0.02436366779311852</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2115574746.822937</v>
+        <v>2295706191.32165</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1506777661323717</v>
+        <v>0.1083004780766234</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02737008690906793</v>
+        <v>0.03665612233882034</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4227162966.638309</v>
+        <v>4365167380.985662</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1158653199736872</v>
+        <v>0.08964614434689226</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02133767434431683</v>
+        <v>0.02135473464677809</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2215981674.146439</v>
+        <v>2300638423.828617</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1539200751812019</v>
+        <v>0.1222217690643074</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0265030838965997</v>
+        <v>0.02237157739316699</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3346287082.64384</v>
+        <v>3208957485.250597</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1230409295013173</v>
+        <v>0.1223901451683772</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04482955866426896</v>
+        <v>0.04795640263890576</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1264009312.370017</v>
+        <v>1902541049.118744</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1545395644423913</v>
+        <v>0.1763032914457873</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03858273104578745</v>
+        <v>0.02740431293077559</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3992523467.410707</v>
+        <v>5271793488.616974</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08214457891652752</v>
+        <v>0.06834584808944864</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02736073254070175</v>
+        <v>0.02597410989617362</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4220541520.882686</v>
+        <v>5201918886.606506</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1363152810749803</v>
+        <v>0.09352723624009901</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03115385542660519</v>
+        <v>0.02319189884740663</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4606519379.660625</v>
+        <v>3654392994.500839</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1683450570711128</v>
+        <v>0.1545904898328936</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0264324024450115</v>
+        <v>0.01865931013751146</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2456708764.613138</v>
+        <v>2344660285.748775</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575261442924646</v>
+        <v>0.1053385313509461</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0439349184826659</v>
+        <v>0.03747451344611436</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2460445747.88395</v>
+        <v>1874734052.327293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1162047134518243</v>
+        <v>0.1195022444644046</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03811119227995233</v>
+        <v>0.04639788827535631</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2404916554.038342</v>
+        <v>2521381604.228472</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1357964478445588</v>
+        <v>0.1808531899275414</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05300161123100405</v>
+        <v>0.05289831166278335</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1926715310.097748</v>
+        <v>2334920575.140061</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1676256601820713</v>
+        <v>0.1174512716878551</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01787796346446621</v>
+        <v>0.01673410920094724</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1484888567.141738</v>
+        <v>1402548135.989908</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1868333622992976</v>
+        <v>0.1721495395557353</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03333061270598644</v>
+        <v>0.02745510916279104</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3639911885.944638</v>
+        <v>3454440686.950939</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1374096839214957</v>
+        <v>0.1142466239772392</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02993899054358806</v>
+        <v>0.02518070701552459</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2687921250.477055</v>
+        <v>2889744174.911025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09673610354861883</v>
+        <v>0.1541789133929739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03805954596622544</v>
+        <v>0.0294908318291759</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1508021737.915312</v>
+        <v>1999761922.276644</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1164845736787292</v>
+        <v>0.1313187935401202</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04454780335122142</v>
+        <v>0.04696682700217591</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1333173968.449302</v>
+        <v>1601009975.010808</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1369404769236162</v>
+        <v>0.1211802212242216</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05617887009966144</v>
+        <v>0.04071468546824095</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1921548399.762694</v>
+        <v>2597840063.941147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08467121333857326</v>
+        <v>0.07049905559596756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04644561510322995</v>
+        <v>0.04755344711633945</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4126014558.058704</v>
+        <v>3711714180.511808</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09735558866491556</v>
+        <v>0.1138506410830344</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04375051314526792</v>
+        <v>0.03409736783069981</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2036176899.687849</v>
+        <v>2465838034.389717</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1185857864334921</v>
+        <v>0.1277950010413632</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03185980739706608</v>
+        <v>0.04221699042146328</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2888796682.538622</v>
+        <v>2779557453.032769</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08928776563356736</v>
+        <v>0.1007728520492574</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03489491075565265</v>
+        <v>0.03342396805977888</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2046213297.352028</v>
+        <v>1533175999.05537</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1305333651256607</v>
+        <v>0.1281140852166807</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03151616708523675</v>
+        <v>0.03996211421355148</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4984157098.657054</v>
+        <v>4170263420.2869</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1209800586342081</v>
+        <v>0.1499499861987126</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01973653061707014</v>
+        <v>0.01865261481674752</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3240331718.890696</v>
+        <v>3052954496.239794</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08985188144273208</v>
+        <v>0.09729408945231353</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02183725320769822</v>
+        <v>0.03290767165464912</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2897516663.923648</v>
+        <v>2945642913.917945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1055651498911251</v>
+        <v>0.1360312552675125</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02987541140790117</v>
+        <v>0.02529478122922266</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4040720943.358035</v>
+        <v>3579646889.919971</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1770682114689087</v>
+        <v>0.1534959531075986</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02482372591397504</v>
+        <v>0.01799926526549474</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2642301845.332878</v>
+        <v>3099109160.141585</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1585052776271692</v>
+        <v>0.1631903976577047</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04839767241873251</v>
+        <v>0.03912263164752285</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_458.xlsx
+++ b/output/fit_clients/fit_round_458.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1661469064.382697</v>
+        <v>2298260680.569002</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09074140114646145</v>
+        <v>0.07020105333346793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.033254819362905</v>
+        <v>0.0444587973533984</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1667260515.955167</v>
+        <v>2247957451.283595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1650818431311252</v>
+        <v>0.1380547532727545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04376590788930536</v>
+        <v>0.05008340302649835</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4419348251.395484</v>
+        <v>4080725297.96045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1440978930952407</v>
+        <v>0.1483689144820986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02711144070410891</v>
+        <v>0.0365760300932159</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>232</v>
+      </c>
+      <c r="J4" t="n">
+        <v>458</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.42527169963687</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4127680721.215262</v>
+        <v>4037744244.692013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08067804331334738</v>
+        <v>0.08207525497703388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03845151134310086</v>
+        <v>0.04577325792642223</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>192</v>
+      </c>
+      <c r="J5" t="n">
+        <v>458</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1856285458.993424</v>
+        <v>2845254420.309666</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1047660059881358</v>
+        <v>0.09878145038376178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05484123758973856</v>
+        <v>0.03415058383549058</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2827616301.964335</v>
+        <v>2141887188.278581</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09086306132845598</v>
+        <v>0.07845013853622596</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03922669325865914</v>
+        <v>0.03060170609234336</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2966708507.293522</v>
+        <v>3881594030.054128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1432206087776586</v>
+        <v>0.1439741181014891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02515514957641563</v>
+        <v>0.02958088352570056</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>129</v>
+      </c>
+      <c r="J8" t="n">
+        <v>458</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1443032911.790963</v>
+        <v>1953754492.577311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1477663672541048</v>
+        <v>0.1884126281588369</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02960796851997299</v>
+        <v>0.02612250813469432</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5631367953.681644</v>
+        <v>3759116181.340419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2042014953832805</v>
+        <v>0.1815110020906934</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04232559689833243</v>
+        <v>0.05012349403275747</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>354</v>
+      </c>
+      <c r="J10" t="n">
+        <v>458</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.59434352962578</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3343094745.909828</v>
+        <v>2750552742.501027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1338337186474671</v>
+        <v>0.1217028241494274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0418172141968065</v>
+        <v>0.03208594121344124</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>190</v>
+      </c>
+      <c r="J11" t="n">
+        <v>456</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2929060230.621738</v>
+        <v>2819945736.510733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1433774604271862</v>
+        <v>0.1720839855221576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05217274055684692</v>
+        <v>0.04393581044264495</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5121992526.300544</v>
+        <v>5153387174.807171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06585566491657142</v>
+        <v>0.07408767301030146</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02019117583692695</v>
+        <v>0.02179098486995861</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>238</v>
+      </c>
+      <c r="J13" t="n">
+        <v>458</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33.44404606005568</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3110591531.968346</v>
+        <v>3165090216.194622</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1475130057211224</v>
+        <v>0.1704073452934256</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03223031050133815</v>
+        <v>0.03832846017846391</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>456</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1440245200.444533</v>
+        <v>1482267816.070843</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07123658673291544</v>
+        <v>0.08625921580186871</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03334316762686062</v>
+        <v>0.03202204246575097</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2367266567.916495</v>
+        <v>1751855835.887286</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1027748070552902</v>
+        <v>0.09094323999013741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04161528575794924</v>
+        <v>0.03416603054710231</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4302888195.168964</v>
+        <v>4099978723.868142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1355872475764549</v>
+        <v>0.1611449820085697</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04934905054010429</v>
+        <v>0.03970653767963957</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>223</v>
+      </c>
+      <c r="J17" t="n">
+        <v>458</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2657247908.436395</v>
+        <v>3314526071.057026</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1775726859677483</v>
+        <v>0.1722584162495912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0267875110536022</v>
+        <v>0.02422980229335091</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1147049262.324511</v>
+        <v>843666040.8452123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1411397993551204</v>
+        <v>0.1612830344279136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02322580417509309</v>
+        <v>0.02211709305619222</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2404554701.223509</v>
+        <v>1804448955.118334</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1171307722486262</v>
+        <v>0.1175312316416183</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03186016082889975</v>
+        <v>0.0209921562417992</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2717097460.639669</v>
+        <v>2109563826.714454</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06632169359876228</v>
+        <v>0.07370581677235706</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02984426259573887</v>
+        <v>0.02815999440823829</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3633155359.774374</v>
+        <v>3616467529.335714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1214183250191849</v>
+        <v>0.1114939282430022</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05639524067036893</v>
+        <v>0.05271048065348032</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>458</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1131316859.696662</v>
+        <v>1468346095.871282</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1353296291450874</v>
+        <v>0.1314383961933994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04313334079431487</v>
+        <v>0.03746282702187674</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2940635032.715715</v>
+        <v>2766562801.818373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1310479854460037</v>
+        <v>0.122209347656062</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03656126545902463</v>
+        <v>0.03614912491445531</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>145</v>
+      </c>
+      <c r="J24" t="n">
+        <v>457</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23.20160512130069</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1411490295.085756</v>
+        <v>1347365390.262511</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1084417166826672</v>
+        <v>0.1002838574808323</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01922574004890746</v>
+        <v>0.03030202621958985</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1440591566.219409</v>
+        <v>1016562970.616998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09217075232654313</v>
+        <v>0.088824220481661</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03304724491381895</v>
+        <v>0.02647318737866792</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2856046049.76476</v>
+        <v>4174090712.588992</v>
       </c>
       <c r="F27" t="n">
-        <v>0.140830153432551</v>
+        <v>0.1358176031128054</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01725109462768443</v>
+        <v>0.01870094714111712</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>199</v>
+      </c>
+      <c r="J27" t="n">
+        <v>458</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3680838532.580261</v>
+        <v>3602627408.62579</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1321159730282587</v>
+        <v>0.1235093082794535</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0502452929690185</v>
+        <v>0.04339158874048015</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>111</v>
+      </c>
+      <c r="J28" t="n">
+        <v>458</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5020575377.54959</v>
+        <v>4623757190.736175</v>
       </c>
       <c r="F29" t="n">
-        <v>0.13987730220577</v>
+        <v>0.09569461702656436</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03360293991421443</v>
+        <v>0.03622164952797578</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>370</v>
+      </c>
+      <c r="J29" t="n">
+        <v>457</v>
+      </c>
+      <c r="K29" t="n">
+        <v>32.32005444565856</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1751640302.111158</v>
+        <v>2051427185.878785</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08955575309784233</v>
+        <v>0.08486656239879123</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02733512088970739</v>
+        <v>0.02873705872155508</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332943960.284184</v>
+        <v>1441776687.111017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079901522096376</v>
+        <v>0.09081666856726776</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04234401582273186</v>
+        <v>0.05216033076790899</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1704711652.659456</v>
+        <v>1706506214.52972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07671203020153748</v>
+        <v>0.1085691275259644</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02869551207313743</v>
+        <v>0.02769224373489926</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3001385650.863882</v>
+        <v>1998932990.002313</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1968193425831478</v>
+        <v>0.1988586891183931</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05427708843482643</v>
+        <v>0.05227207035238068</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1451957899.558549</v>
+        <v>1547893774.415761</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08954705651563212</v>
+        <v>0.0803325806305831</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02103098842331434</v>
+        <v>0.02415198894303017</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1186700414.859008</v>
+        <v>826536906.9237101</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09118926741923765</v>
+        <v>0.0979663456257435</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03657024002371485</v>
+        <v>0.0360099412501144</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3093052851.034371</v>
+        <v>3000488875.53121</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1398096930421086</v>
+        <v>0.1258409075075612</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02849807470925722</v>
+        <v>0.0236377638181314</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1907192372.558488</v>
+        <v>2430644867.778006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08362405819056924</v>
+        <v>0.08295183887809907</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03832548498669724</v>
+        <v>0.03497017231026221</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1947495706.488081</v>
+        <v>1986648497.41833</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1003416166629303</v>
+        <v>0.09808148587934025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0292899773937864</v>
+        <v>0.03637942157893893</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2122629659.945915</v>
+        <v>1503976816.464545</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1906363272520278</v>
+        <v>0.1251380066250111</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02956898389682466</v>
+        <v>0.02530435257392739</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1559835212.200804</v>
+        <v>1450436095.358789</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1111220570052571</v>
+        <v>0.1293819852410756</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0524540083369002</v>
+        <v>0.05837085535003973</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2315038725.915269</v>
+        <v>2572967403.935117</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131109000710211</v>
+        <v>0.128995046460095</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03147457647801005</v>
+        <v>0.04134031472876277</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4212282463.104858</v>
+        <v>2791858696.613317</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09654518000812137</v>
+        <v>0.09423955828010723</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02917538966381328</v>
+        <v>0.04624768649313071</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>201</v>
+      </c>
+      <c r="J42" t="n">
+        <v>457</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.02424173072261</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2613833149.936223</v>
+        <v>2516846620.496718</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1271341495836882</v>
+        <v>0.1626983826782319</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01770757676912063</v>
+        <v>0.02437745481032612</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1747553953.995154</v>
+        <v>2107791715.990859</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07921263493422036</v>
+        <v>0.08206957772925567</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02396166851987946</v>
+        <v>0.02869066114947759</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2526686661.97333</v>
+        <v>2356024361.075811</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1442418421906566</v>
+        <v>0.161708458251577</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04160244355770321</v>
+        <v>0.03444138150676836</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4700320816.54926</v>
+        <v>3605399151.249032</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1117734681945418</v>
+        <v>0.1579702501675079</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04422498542041695</v>
+        <v>0.05177007088580515</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>272</v>
+      </c>
+      <c r="J46" t="n">
+        <v>457</v>
+      </c>
+      <c r="K46" t="n">
+        <v>30.68103318645154</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3461083132.64621</v>
+        <v>4963877851.103582</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1591747112752928</v>
+        <v>0.1466265741703036</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05596531354441377</v>
+        <v>0.05600076187851036</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>206</v>
+      </c>
+      <c r="J47" t="n">
+        <v>458</v>
+      </c>
+      <c r="K47" t="n">
+        <v>34.64555314589914</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3006102324.806304</v>
+        <v>2953718508.906502</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1058182897091663</v>
+        <v>0.1084934690481616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02909634596994532</v>
+        <v>0.0345830298077631</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>228</v>
+      </c>
+      <c r="J48" t="n">
+        <v>457</v>
+      </c>
+      <c r="K48" t="n">
+        <v>23.71532069397576</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1414956903.648647</v>
+        <v>1851482531.904074</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1811041625690669</v>
+        <v>0.1881028066942103</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02736981714370633</v>
+        <v>0.04169516632908647</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3956787078.428879</v>
+        <v>3318747386.271944</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1201774069042708</v>
+        <v>0.1486684588425585</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0363079432046254</v>
+        <v>0.04470001776984318</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>163</v>
+      </c>
+      <c r="J50" t="n">
+        <v>456</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1483899906.1372</v>
+        <v>1089856602.856728</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1657244433718976</v>
+        <v>0.1665015705890269</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04546852078587848</v>
+        <v>0.04363675980752792</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4377996962.655243</v>
+        <v>3933878420.641976</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1088144651949906</v>
+        <v>0.09965277300686851</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05735233819827447</v>
+        <v>0.04146373880349034</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>260</v>
+      </c>
+      <c r="J52" t="n">
+        <v>457</v>
+      </c>
+      <c r="K52" t="n">
+        <v>32.56729285541307</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3511829698.634053</v>
+        <v>2324496521.244259</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1530858228854372</v>
+        <v>0.1434392251597652</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02881780678525799</v>
+        <v>0.03324931166600242</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21.52572784525553</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4557312964.460772</v>
+        <v>4373585764.530959</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1331882249117147</v>
+        <v>0.1468478209660218</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05028668160943193</v>
+        <v>0.04840430727832534</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>243</v>
+      </c>
+      <c r="J54" t="n">
+        <v>457</v>
+      </c>
+      <c r="K54" t="n">
+        <v>31.42406683902083</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4654975916.29115</v>
+        <v>3300852446.029651</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2005232721755138</v>
+        <v>0.1416344622885637</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02546593191297543</v>
+        <v>0.0253798036551932</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>457</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.45784790466309</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1600732488.769294</v>
+        <v>1265561668.79541</v>
       </c>
       <c r="F56" t="n">
-        <v>0.123106655978483</v>
+        <v>0.1541684718836614</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05415865599575867</v>
+        <v>0.0482078650587069</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4094887608.098599</v>
+        <v>2875411095.946654</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1216361909305494</v>
+        <v>0.1841705114199549</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02624057656860113</v>
+        <v>0.02410778165904832</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1637705954.482795</v>
+        <v>1618987750.326317</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1707755534101527</v>
+        <v>0.1720607934657145</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03163871435733414</v>
+        <v>0.03796588227826293</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3757161720.736874</v>
+        <v>3497905533.384584</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1261950678026848</v>
+        <v>0.1148110991584758</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03236040902106093</v>
+        <v>0.04567612083535914</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>224</v>
+      </c>
+      <c r="J59" t="n">
+        <v>458</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3646284568.242354</v>
+        <v>3016800808.836642</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1784437765367585</v>
+        <v>0.1995670760886989</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02789081551823892</v>
+        <v>0.03023583540776401</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3058206423.460257</v>
+        <v>3171068874.552076</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1100134974602243</v>
+        <v>0.146377821101184</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03211033932198847</v>
+        <v>0.02394474986457022</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1503578830.04875</v>
+        <v>1313016008.679858</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1176686740094751</v>
+        <v>0.1370092508827714</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03382611833286806</v>
+        <v>0.0481852600550397</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3478343036.247556</v>
+        <v>3959684938.224154</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09261268404381531</v>
+        <v>0.08358000968728045</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03123343115572437</v>
+        <v>0.02875974687077608</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>229</v>
+      </c>
+      <c r="J63" t="n">
+        <v>458</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4334956540.066814</v>
+        <v>4376359301.078147</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1360092305145798</v>
+        <v>0.1468662126202839</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02604229945964476</v>
+        <v>0.02227307484355683</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>229</v>
+      </c>
+      <c r="J64" t="n">
+        <v>458</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3679953684.868069</v>
+        <v>5834652724.683446</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1052410510160488</v>
+        <v>0.1067771132990897</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02335821650603579</v>
+        <v>0.02308460767632838</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>326</v>
+      </c>
+      <c r="J65" t="n">
+        <v>458</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4024092536.419725</v>
+        <v>5639879038.281496</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1271745321743829</v>
+        <v>0.1433141042143707</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03254475262522782</v>
+        <v>0.04439899326711196</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>226</v>
+      </c>
+      <c r="J66" t="n">
+        <v>457</v>
+      </c>
+      <c r="K66" t="n">
+        <v>32.80715777509754</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3433125110.69487</v>
+        <v>2161710698.680757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08243631715353811</v>
+        <v>0.1026207542700532</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03366451696331285</v>
+        <v>0.03425313034533942</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5403328856.072906</v>
+        <v>5240064346.457582</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1308552074231408</v>
+        <v>0.1282384914722998</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04351497081111768</v>
+        <v>0.04434891004392066</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>249</v>
+      </c>
+      <c r="J68" t="n">
+        <v>457</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32.09479897031385</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2046593462.351993</v>
+        <v>1689756323.00843</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1571436850749777</v>
+        <v>0.1422777737630438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04212450761834965</v>
+        <v>0.05574708352777773</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3092997510.897687</v>
+        <v>2802026710.551413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06939199422126292</v>
+        <v>0.06646202078356457</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03668432116745595</v>
+        <v>0.04042954015690896</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4669142442.023635</v>
+        <v>4622577289.572134</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1404763431536071</v>
+        <v>0.1269370631469207</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02882942949195091</v>
+        <v>0.02526609578746082</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>312</v>
+      </c>
+      <c r="J71" t="n">
+        <v>458</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1531589230.865612</v>
+        <v>2191342197.135106</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06618750460886159</v>
+        <v>0.08280952728976147</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03346626236877102</v>
+        <v>0.0421778909713308</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2717456507.425779</v>
+        <v>2447661049.057108</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07156181035221408</v>
+        <v>0.09240378811343107</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04381553698313283</v>
+        <v>0.04723699580750468</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3651334319.922306</v>
+        <v>3125686126.196312</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1708892641859737</v>
+        <v>0.1670340054607768</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02436366779311852</v>
+        <v>0.02181033303980688</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.20850618713963</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2295706191.32165</v>
+        <v>2504717995.755601</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1083004780766234</v>
+        <v>0.1173103326678795</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03665612233882034</v>
+        <v>0.03582698828079203</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4365167380.985662</v>
+        <v>3299633852.773153</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08964614434689226</v>
+        <v>0.1129743860953086</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02135473464677809</v>
+        <v>0.03165083791730376</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>219</v>
+      </c>
+      <c r="J76" t="n">
+        <v>457</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26.38866889516626</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2300638423.828617</v>
+        <v>2286214232.692674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1222217690643074</v>
+        <v>0.1422198666302301</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02237157739316699</v>
+        <v>0.02781977807064843</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3208957485.250597</v>
+        <v>3689203789.702529</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1223901451683772</v>
+        <v>0.08693169778744622</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04795640263890576</v>
+        <v>0.04474774333911814</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>228</v>
+      </c>
+      <c r="J78" t="n">
+        <v>458</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1902541049.118744</v>
+        <v>1213737746.885131</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763032914457873</v>
+        <v>0.1719669192855032</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02740431293077559</v>
+        <v>0.0296671835890538</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5271793488.616974</v>
+        <v>4423452032.062299</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06834584808944864</v>
+        <v>0.0842163717631931</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02597410989617362</v>
+        <v>0.03467846270260796</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>223</v>
+      </c>
+      <c r="J80" t="n">
+        <v>458</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5201918886.606506</v>
+        <v>3576093235.421447</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09352723624009901</v>
+        <v>0.1195206600662508</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02319189884740663</v>
+        <v>0.02903598068811409</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>213</v>
+      </c>
+      <c r="J81" t="n">
+        <v>458</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3654392994.500839</v>
+        <v>5579980147.367097</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1545904898328936</v>
+        <v>0.1911378524463473</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01865931013751146</v>
+        <v>0.02641640416624982</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>304</v>
+      </c>
+      <c r="J82" t="n">
+        <v>458</v>
+      </c>
+      <c r="K82" t="n">
+        <v>35.02628320057143</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2344660285.748775</v>
+        <v>2446103187.059512</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1053385313509461</v>
+        <v>0.1081454681193644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03747451344611436</v>
+        <v>0.03572857209553645</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1874734052.327293</v>
+        <v>2322063427.39885</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1195022444644046</v>
+        <v>0.115766388351112</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04639788827535631</v>
+        <v>0.05172915193664358</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2521381604.228472</v>
+        <v>3231484401.91112</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1808531899275414</v>
+        <v>0.1331629425529564</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05289831166278335</v>
+        <v>0.04431452497121018</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2334920575.140061</v>
+        <v>1923729849.873775</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1174512716878551</v>
+        <v>0.1361525258616097</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01673410920094724</v>
+        <v>0.02172225042077713</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1402548135.989908</v>
+        <v>1214957244.575741</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1721495395557353</v>
+        <v>0.1316684136281213</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02745510916279104</v>
+        <v>0.03005748209347898</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3454440686.950939</v>
+        <v>2991305620.803676</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1142466239772392</v>
+        <v>0.1275072402800309</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02518070701552459</v>
+        <v>0.03874183765224042</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2889744174.911025</v>
+        <v>2627795220.795637</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1541789133929739</v>
+        <v>0.1552903647198599</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0294908318291759</v>
+        <v>0.02649604905181718</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1999761922.276644</v>
+        <v>2015007028.072918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1313187935401202</v>
+        <v>0.1085658344853097</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04696682700217591</v>
+        <v>0.03545091034446231</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1601009975.010808</v>
+        <v>1981216127.228526</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1211802212242216</v>
+        <v>0.1534761035467379</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04071468546824095</v>
+        <v>0.0582824729827347</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2597840063.941147</v>
+        <v>2896671732.500836</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07049905559596756</v>
+        <v>0.09850811896977014</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04755344711633945</v>
+        <v>0.02978724522344797</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3711714180.511808</v>
+        <v>4270981548.146581</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138506410830344</v>
+        <v>0.1340389824155506</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03409736783069981</v>
+        <v>0.03861808639988001</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>220</v>
+      </c>
+      <c r="J93" t="n">
+        <v>457</v>
+      </c>
+      <c r="K93" t="n">
+        <v>32.01955346692096</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2465838034.389717</v>
+        <v>1864531067.068792</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1277950010413632</v>
+        <v>0.1159810908213815</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04221699042146328</v>
+        <v>0.03481051884377102</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2779557453.032769</v>
+        <v>2596184644.685904</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1007728520492574</v>
+        <v>0.13519023617149</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03342396805977888</v>
+        <v>0.03869092931526209</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1533175999.05537</v>
+        <v>2152859862.411644</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281140852166807</v>
+        <v>0.09970413533074708</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03996211421355148</v>
+        <v>0.02845975161001502</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4170263420.2869</v>
+        <v>3262736704.33454</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1499499861987126</v>
+        <v>0.1456640627717142</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01865261481674752</v>
+        <v>0.0203031890124758</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>239</v>
+      </c>
+      <c r="J97" t="n">
+        <v>457</v>
+      </c>
+      <c r="K97" t="n">
+        <v>26.90708507246088</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3052954496.239794</v>
+        <v>3264894348.318362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09729408945231353</v>
+        <v>0.1217097845762437</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03290767165464912</v>
+        <v>0.03251840197626379</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>115</v>
+      </c>
+      <c r="J98" t="n">
+        <v>456</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2945642913.917945</v>
+        <v>3392595190.530241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1360312552675125</v>
+        <v>0.1347856831790243</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02529478122922266</v>
+        <v>0.02380545917468511</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3579646889.919971</v>
+        <v>4588230000.907232</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534959531075986</v>
+        <v>0.162409716576155</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01799926526549474</v>
+        <v>0.01911630304398798</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>212</v>
+      </c>
+      <c r="J100" t="n">
+        <v>458</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3099109160.141585</v>
+        <v>2702705949.167033</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1631903976577047</v>
+        <v>0.1749993962813998</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03912263164752285</v>
+        <v>0.03759903120906263</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
